--- a/data/demand.xlsx
+++ b/data/demand.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C28EF0E-FD7C-DF4E-A9CA-E2F2F92193C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="38">
   <si>
     <t>yyyymm</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -136,33 +137,36 @@
   <si>
     <t>export</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>priority</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -217,17 +221,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -236,16 +240,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -522,21 +526,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="I119" sqref="I119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -549,10 +553,13 @@
       <c r="D1" t="s">
         <v>34</v>
       </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
       <c r="G1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>202003</v>
       </c>
@@ -565,8 +572,11 @@
       <c r="D2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>202003</v>
       </c>
@@ -579,8 +589,11 @@
       <c r="D3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>202003</v>
       </c>
@@ -593,8 +606,11 @@
       <c r="D4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>202003</v>
       </c>
@@ -607,8 +623,11 @@
       <c r="D5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>202003</v>
       </c>
@@ -621,8 +640,11 @@
       <c r="D6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>202003</v>
       </c>
@@ -635,8 +657,11 @@
       <c r="D7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>202003</v>
       </c>
@@ -649,8 +674,11 @@
       <c r="D8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>202003</v>
       </c>
@@ -663,8 +691,11 @@
       <c r="D9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>202003</v>
       </c>
@@ -677,8 +708,11 @@
       <c r="D10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>202003</v>
       </c>
@@ -691,8 +725,11 @@
       <c r="D11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>202003</v>
       </c>
@@ -705,8 +742,11 @@
       <c r="D12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>202003</v>
       </c>
@@ -719,8 +759,11 @@
       <c r="D13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>202003</v>
       </c>
@@ -733,8 +776,11 @@
       <c r="D14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>202003</v>
       </c>
@@ -747,8 +793,11 @@
       <c r="D15" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>202003</v>
       </c>
@@ -761,8 +810,11 @@
       <c r="D16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>202003</v>
       </c>
@@ -775,8 +827,11 @@
       <c r="D17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>202003</v>
       </c>
@@ -789,8 +844,11 @@
       <c r="D18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>202003</v>
       </c>
@@ -803,8 +861,11 @@
       <c r="D19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>202003</v>
       </c>
@@ -817,8 +878,11 @@
       <c r="D20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>202003</v>
       </c>
@@ -831,8 +895,11 @@
       <c r="D21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>202003</v>
       </c>
@@ -845,8 +912,11 @@
       <c r="D22" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>202003</v>
       </c>
@@ -859,8 +929,11 @@
       <c r="D23" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>202003</v>
       </c>
@@ -873,8 +946,11 @@
       <c r="D24" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>202003</v>
       </c>
@@ -887,8 +963,11 @@
       <c r="D25" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>202003</v>
       </c>
@@ -901,8 +980,11 @@
       <c r="D26" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>202003</v>
       </c>
@@ -915,8 +997,11 @@
       <c r="D27" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>202003</v>
       </c>
@@ -929,8 +1014,11 @@
       <c r="D28" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>202003</v>
       </c>
@@ -943,8 +1031,11 @@
       <c r="D29" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>202003</v>
       </c>
@@ -957,8 +1048,11 @@
       <c r="D30" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>202003</v>
       </c>
@@ -971,8 +1065,11 @@
       <c r="D31" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>202003</v>
       </c>
@@ -985,8 +1082,11 @@
       <c r="D32" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>202003</v>
       </c>
@@ -999,8 +1099,11 @@
       <c r="D33" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>202003</v>
       </c>
@@ -1013,8 +1116,11 @@
       <c r="D34" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>202003</v>
       </c>
@@ -1027,8 +1133,11 @@
       <c r="D35" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>202003</v>
       </c>
@@ -1041,8 +1150,11 @@
       <c r="D36" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>202003</v>
       </c>
@@ -1055,8 +1167,11 @@
       <c r="D37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>202003</v>
       </c>
@@ -1069,8 +1184,11 @@
       <c r="D38" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>202003</v>
       </c>
@@ -1083,8 +1201,11 @@
       <c r="D39" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>202003</v>
       </c>
@@ -1097,8 +1218,11 @@
       <c r="D40" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>202003</v>
       </c>
@@ -1111,8 +1235,11 @@
       <c r="D41" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>202003</v>
       </c>
@@ -1125,8 +1252,11 @@
       <c r="D42" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>202003</v>
       </c>
@@ -1139,8 +1269,11 @@
       <c r="D43" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>202003</v>
       </c>
@@ -1153,8 +1286,11 @@
       <c r="D44" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>202004</v>
       </c>
@@ -1167,8 +1303,11 @@
       <c r="D45" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>202004</v>
       </c>
@@ -1181,8 +1320,11 @@
       <c r="D46" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>202004</v>
       </c>
@@ -1195,8 +1337,11 @@
       <c r="D47" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>202004</v>
       </c>
@@ -1209,8 +1354,11 @@
       <c r="D48" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>202004</v>
       </c>
@@ -1223,8 +1371,11 @@
       <c r="D49" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>202004</v>
       </c>
@@ -1237,8 +1388,11 @@
       <c r="D50" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>202004</v>
       </c>
@@ -1251,8 +1405,11 @@
       <c r="D51" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>202004</v>
       </c>
@@ -1265,8 +1422,11 @@
       <c r="D52" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>202004</v>
       </c>
@@ -1279,8 +1439,11 @@
       <c r="D53" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>202004</v>
       </c>
@@ -1293,8 +1456,11 @@
       <c r="D54" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>202004</v>
       </c>
@@ -1307,8 +1473,11 @@
       <c r="D55" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>202004</v>
       </c>
@@ -1321,8 +1490,11 @@
       <c r="D56" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>202004</v>
       </c>
@@ -1335,8 +1507,11 @@
       <c r="D57" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>202004</v>
       </c>
@@ -1349,8 +1524,11 @@
       <c r="D58" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>202004</v>
       </c>
@@ -1363,8 +1541,11 @@
       <c r="D59" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>202004</v>
       </c>
@@ -1377,8 +1558,11 @@
       <c r="D60" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>202004</v>
       </c>
@@ -1391,8 +1575,11 @@
       <c r="D61" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>202004</v>
       </c>
@@ -1405,8 +1592,11 @@
       <c r="D62" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>202004</v>
       </c>
@@ -1419,8 +1609,11 @@
       <c r="D63" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>202004</v>
       </c>
@@ -1433,8 +1626,11 @@
       <c r="D64" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>202004</v>
       </c>
@@ -1447,8 +1643,11 @@
       <c r="D65" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>202004</v>
       </c>
@@ -1461,8 +1660,11 @@
       <c r="D66" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>202004</v>
       </c>
@@ -1475,8 +1677,11 @@
       <c r="D67" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>202004</v>
       </c>
@@ -1489,8 +1694,11 @@
       <c r="D68" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>202004</v>
       </c>
@@ -1503,8 +1711,11 @@
       <c r="D69" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>202004</v>
       </c>
@@ -1517,8 +1728,11 @@
       <c r="D70" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>202004</v>
       </c>
@@ -1531,8 +1745,11 @@
       <c r="D71" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>202004</v>
       </c>
@@ -1545,8 +1762,11 @@
       <c r="D72" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>202004</v>
       </c>
@@ -1559,8 +1779,11 @@
       <c r="D73" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>202004</v>
       </c>
@@ -1573,8 +1796,11 @@
       <c r="D74" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>202004</v>
       </c>
@@ -1587,8 +1813,11 @@
       <c r="D75" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>202004</v>
       </c>
@@ -1601,8 +1830,11 @@
       <c r="D76" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>202004</v>
       </c>
@@ -1615,8 +1847,11 @@
       <c r="D77" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>202004</v>
       </c>
@@ -1629,8 +1864,11 @@
       <c r="D78" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>202004</v>
       </c>
@@ -1643,8 +1881,11 @@
       <c r="D79" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>202004</v>
       </c>
@@ -1657,8 +1898,11 @@
       <c r="D80" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>202004</v>
       </c>
@@ -1671,8 +1915,11 @@
       <c r="D81" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>202004</v>
       </c>
@@ -1685,8 +1932,11 @@
       <c r="D82" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>202004</v>
       </c>
@@ -1699,8 +1949,11 @@
       <c r="D83" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>202004</v>
       </c>
@@ -1713,8 +1966,11 @@
       <c r="D84" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>202004</v>
       </c>
@@ -1727,8 +1983,11 @@
       <c r="D85" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>202004</v>
       </c>
@@ -1741,8 +2000,11 @@
       <c r="D86" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>202004</v>
       </c>
@@ -1755,8 +2017,11 @@
       <c r="D87" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>202005</v>
       </c>
@@ -1769,8 +2034,11 @@
       <c r="D88" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>202005</v>
       </c>
@@ -1783,8 +2051,11 @@
       <c r="D89" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>202005</v>
       </c>
@@ -1797,8 +2068,11 @@
       <c r="D90" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>202005</v>
       </c>
@@ -1811,8 +2085,11 @@
       <c r="D91" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>202005</v>
       </c>
@@ -1825,8 +2102,11 @@
       <c r="D92" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>202005</v>
       </c>
@@ -1839,8 +2119,11 @@
       <c r="D93" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>202005</v>
       </c>
@@ -1853,8 +2136,11 @@
       <c r="D94" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>202005</v>
       </c>
@@ -1867,8 +2153,11 @@
       <c r="D95" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>202005</v>
       </c>
@@ -1881,8 +2170,11 @@
       <c r="D96" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>202005</v>
       </c>
@@ -1895,8 +2187,11 @@
       <c r="D97" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>202005</v>
       </c>
@@ -1909,8 +2204,11 @@
       <c r="D98" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>202005</v>
       </c>
@@ -1923,8 +2221,11 @@
       <c r="D99" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>202005</v>
       </c>
@@ -1937,8 +2238,11 @@
       <c r="D100" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>202005</v>
       </c>
@@ -1951,8 +2255,11 @@
       <c r="D101" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>202005</v>
       </c>
@@ -1965,8 +2272,11 @@
       <c r="D102" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>202005</v>
       </c>
@@ -1979,8 +2289,11 @@
       <c r="D103" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>202005</v>
       </c>
@@ -1993,8 +2306,11 @@
       <c r="D104" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>202005</v>
       </c>
@@ -2007,8 +2323,11 @@
       <c r="D105" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>202005</v>
       </c>
@@ -2021,8 +2340,11 @@
       <c r="D106" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>202005</v>
       </c>
@@ -2035,8 +2357,11 @@
       <c r="D107" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>202005</v>
       </c>
@@ -2049,8 +2374,11 @@
       <c r="D108" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>202005</v>
       </c>
@@ -2063,8 +2391,11 @@
       <c r="D109" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>202005</v>
       </c>
@@ -2077,8 +2408,11 @@
       <c r="D110" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>202005</v>
       </c>
@@ -2091,8 +2425,11 @@
       <c r="D111" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>202005</v>
       </c>
@@ -2105,8 +2442,11 @@
       <c r="D112" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>202005</v>
       </c>
@@ -2119,8 +2459,11 @@
       <c r="D113" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>202005</v>
       </c>
@@ -2133,8 +2476,11 @@
       <c r="D114" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>202005</v>
       </c>
@@ -2147,8 +2493,11 @@
       <c r="D115" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>202005</v>
       </c>
@@ -2161,8 +2510,11 @@
       <c r="D116" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>202005</v>
       </c>
@@ -2175,8 +2527,11 @@
       <c r="D117" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>202005</v>
       </c>
@@ -2189,8 +2544,11 @@
       <c r="D118" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>202005</v>
       </c>
@@ -2203,8 +2561,11 @@
       <c r="D119" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>202005</v>
       </c>
@@ -2217,8 +2578,11 @@
       <c r="D120" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>202005</v>
       </c>
@@ -2231,8 +2595,11 @@
       <c r="D121" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>202005</v>
       </c>
@@ -2245,8 +2612,11 @@
       <c r="D122" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>202005</v>
       </c>
@@ -2259,8 +2629,11 @@
       <c r="D123" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>202005</v>
       </c>
@@ -2273,8 +2646,11 @@
       <c r="D124" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>202005</v>
       </c>
@@ -2287,8 +2663,11 @@
       <c r="D125" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>202005</v>
       </c>
@@ -2301,8 +2680,11 @@
       <c r="D126" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>202005</v>
       </c>
@@ -2315,8 +2697,11 @@
       <c r="D127" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>202005</v>
       </c>
@@ -2329,8 +2714,11 @@
       <c r="D128" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>202005</v>
       </c>
@@ -2343,8 +2731,11 @@
       <c r="D129" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>202005</v>
       </c>
@@ -2356,6 +2747,9 @@
       </c>
       <c r="D130" t="s">
         <v>36</v>
+      </c>
+      <c r="E130">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
